--- a/ExampleIG/output/StructureDefinition-hn-extension-representant.xlsx
+++ b/ExampleIG/output/StructureDefinition-hn-extension-representant.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AK$15</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AK$22</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="755" uniqueCount="135">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-02T22:29:48+01:00</t>
+    <t>2023-11-03T00:58:12+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -273,6 +273,28 @@
     <t>Extension.extension:idType.extension</t>
   </si>
   <si>
+    <t>Extension.extension:idType.url</t>
+  </si>
+  <si>
+    <t>Extension.extension:idType.value[x]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coding
+</t>
+  </si>
+  <si>
+    <t>Extension.extension:idType.value[x].id</t>
+  </si>
+  <si>
+    <t>Extension.extension.value[x].id</t>
+  </si>
+  <si>
+    <t>Extension.extension:idType.value[x].extension</t>
+  </si>
+  <si>
+    <t>Extension.extension.value[x].extension</t>
+  </si>
+  <si>
     <t>extensions
 user content</t>
   </si>
@@ -286,10 +308,129 @@
     <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
   </si>
   <si>
-    <t>Extension.extension:idType.url</t>
-  </si>
-  <si>
-    <t>Extension.extension:idType.value[x]</t>
+    <t>Extension.extension:idType.value[x].system</t>
+  </si>
+  <si>
+    <t>Extension.extension.value[x].system</t>
+  </si>
+  <si>
+    <t>Identity of the terminology system</t>
+  </si>
+  <si>
+    <t>The identification of the code system that defines the meaning of the symbol in the code.</t>
+  </si>
+  <si>
+    <t>The URI may be an OID (urn:oid:...) or a UUID (urn:uuid:...).  OIDs and UUIDs SHALL be references to the HL7 OID registry. Otherwise, the URI should come from HL7's list of FHIR defined special URIs or it should reference to some definition that establishes the system clearly and unambiguously.</t>
+  </si>
+  <si>
+    <t>Need to be unambiguous about the source of the definition of the symbol.</t>
+  </si>
+  <si>
+    <t>urn:oid:2.16.578.1.12.4.1.1.8116</t>
+  </si>
+  <si>
+    <t>Coding.system</t>
+  </si>
+  <si>
+    <t>./codeSystem</t>
+  </si>
+  <si>
+    <t>Extension.extension:idType.value[x].version</t>
+  </si>
+  <si>
+    <t>Extension.extension.value[x].version</t>
+  </si>
+  <si>
+    <t>Version of the system - if relevant</t>
+  </si>
+  <si>
+    <t>The version of the code system which was used when choosing this code. Note that a well-maintained code system does not need the version reported, because the meaning of codes is consistent across versions. However this cannot consistently be assured, and when the meaning is not guaranteed to be consistent, the version SHOULD be exchanged.</t>
+  </si>
+  <si>
+    <t>Where the terminology does not clearly define what string should be used to identify code system versions, the recommendation is to use the date (expressed in FHIR date format) on which that version was officially published as the version date.</t>
+  </si>
+  <si>
+    <t>Coding.version</t>
+  </si>
+  <si>
+    <t>./codeSystemVersion</t>
+  </si>
+  <si>
+    <t>Extension.extension:idType.value[x].code</t>
+  </si>
+  <si>
+    <t>Extension.extension.value[x].code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">code
+</t>
+  </si>
+  <si>
+    <t>Symbol in syntax defined by the system</t>
+  </si>
+  <si>
+    <t>A symbol in syntax defined by the system. The symbol may be a predefined code or an expression in a syntax defined by the coding system (e.g. post-coordination).</t>
+  </si>
+  <si>
+    <t>Note that FHIR strings SHALL NOT exceed 1MB in size</t>
+  </si>
+  <si>
+    <t>Need to refer to a particular code in the system.</t>
+  </si>
+  <si>
+    <t>Coding.code</t>
+  </si>
+  <si>
+    <t>./code</t>
+  </si>
+  <si>
+    <t>Extension.extension:idType.value[x].display</t>
+  </si>
+  <si>
+    <t>Extension.extension.value[x].display</t>
+  </si>
+  <si>
+    <t>Representation defined by the system</t>
+  </si>
+  <si>
+    <t>A representation of the meaning of the code in the system, following the rules of the system.</t>
+  </si>
+  <si>
+    <t>Need to be able to carry a human-readable meaning of the code for readers that do not know  the system.</t>
+  </si>
+  <si>
+    <t>Coding.display</t>
+  </si>
+  <si>
+    <t>CV.displayName</t>
+  </si>
+  <si>
+    <t>Extension.extension:idType.value[x].userSelected</t>
+  </si>
+  <si>
+    <t>Extension.extension.value[x].userSelected</t>
+  </si>
+  <si>
+    <t xml:space="preserve">boolean
+</t>
+  </si>
+  <si>
+    <t>If this coding was chosen directly by the user</t>
+  </si>
+  <si>
+    <t>Indicates that this coding was chosen by a user directly - e.g. off a pick list of available items (codes or displays).</t>
+  </si>
+  <si>
+    <t>Amongst a set of alternatives, a directly chosen code is the most appropriate starting point for new translations. There is some ambiguity about what exactly 'directly chosen' implies, and trading partner agreement may be needed to clarify the use of this element and its consequences more completely.</t>
+  </si>
+  <si>
+    <t>This has been identified as a clinical safety criterium - that this exact system/code pair was chosen explicitly, rather than inferred by the system based on some rules or language processing.</t>
+  </si>
+  <si>
+    <t>Coding.userSelected</t>
+  </si>
+  <si>
+    <t>CD.codingRationale</t>
   </si>
   <si>
     <t>base64Binary
@@ -611,7 +752,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AK15"/>
+  <dimension ref="A1:AK22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -620,8 +761,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="34.84375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="28.27734375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="45.2890625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="38.72265625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="7.015625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="12.3828125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="6" max="6" width="2.15234375" customWidth="true" bestFit="true"/>
@@ -633,6 +774,7 @@
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="169.35546875" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
@@ -648,12 +790,12 @@
     <col min="29" max="29" width="40.0390625" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="1.0390625" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="5.60546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="17.7265625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="19.27734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="33" max="33" width="2.15234375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="2.15234375" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="4.58203125" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="20.03125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1701,14 +1843,14 @@
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
-        <v>82</v>
+        <v>36</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
         <v>37</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>36</v>
@@ -1723,14 +1865,12 @@
         <v>50</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>83</v>
+        <v>27</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="N11" t="s" s="2">
-        <v>85</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="N11" s="2"/>
       <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
         <v>36</v>
@@ -1794,12 +1934,12 @@
         <v>41</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>70</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B12" t="s" s="2">
         <v>64</v>
@@ -1904,7 +2044,7 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B13" t="s" s="2">
         <v>72</v>
@@ -1930,7 +2070,7 @@
         <v>36</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="L13" t="s" s="2">
         <v>74</v>
@@ -2007,10 +2147,10 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>69</v>
+        <v>85</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>69</v>
+        <v>86</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -2018,7 +2158,7 @@
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="G14" t="s" s="2">
         <v>43</v>
@@ -2033,24 +2173,22 @@
         <v>36</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>65</v>
+        <v>44</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>67</v>
-      </c>
-      <c r="N14" t="s" s="2">
-        <v>68</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="N14" s="2"/>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
         <v>36</v>
       </c>
       <c r="Q14" s="2"/>
       <c r="R14" t="s" s="2">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="S14" t="s" s="2">
         <v>36</v>
@@ -2092,10 +2230,10 @@
         <v>36</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>69</v>
+        <v>47</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="AH14" t="s" s="2">
         <v>43</v>
@@ -2107,26 +2245,26 @@
         <v>36</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>70</v>
+        <v>48</v>
       </c>
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>36</v>
+        <v>89</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
         <v>37</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>36</v>
@@ -2138,15 +2276,17 @@
         <v>36</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>88</v>
+        <v>50</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="N15" s="2"/>
+        <v>91</v>
+      </c>
+      <c r="N15" t="s" s="2">
+        <v>92</v>
+      </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
         <v>36</v>
@@ -2183,38 +2323,779 @@
         <v>36</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="AC15" t="s" s="2">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="AD15" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>76</v>
+        <v>55</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>77</v>
+        <v>41</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>70</v>
       </c>
     </row>
+    <row r="16" hidden="true">
+      <c r="A16" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="B16" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="D16" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="E16" s="2"/>
+      <c r="F16" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="G16" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="H16" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="I16" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="J16" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="K16" t="s" s="2">
+        <v>65</v>
+      </c>
+      <c r="L16" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="M16" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="N16" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="O16" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="P16" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Q16" s="2"/>
+      <c r="R16" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="S16" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="T16" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="U16" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="V16" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="W16" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="X16" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Y16" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Z16" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AA16" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AB16" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AC16" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AD16" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AE16" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AF16" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AG16" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AH16" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AI16" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ16" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK16" t="s" s="2">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="17" hidden="true">
+      <c r="A17" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="B17" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="C17" s="2"/>
+      <c r="D17" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="E17" s="2"/>
+      <c r="F17" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="G17" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="H17" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="I17" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="J17" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="K17" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="L17" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="M17" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="N17" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="O17" s="2"/>
+      <c r="P17" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Q17" s="2"/>
+      <c r="R17" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="S17" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="T17" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="U17" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="V17" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="W17" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="X17" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Y17" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Z17" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AA17" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AB17" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AC17" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AD17" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AE17" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AF17" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="AG17" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AH17" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AI17" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ17" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK17" t="s" s="2">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="18" hidden="true">
+      <c r="A18" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="B18" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="E18" s="2"/>
+      <c r="F18" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="G18" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="H18" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="I18" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="J18" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="K18" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="L18" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="M18" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="N18" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="O18" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="P18" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Q18" s="2"/>
+      <c r="R18" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="S18" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="T18" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="U18" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="V18" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="W18" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="X18" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Y18" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Z18" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AA18" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AB18" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AC18" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AD18" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AE18" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AF18" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="AG18" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AH18" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AI18" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ18" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK18" t="s" s="2">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="19" hidden="true">
+      <c r="A19" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="B19" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="C19" s="2"/>
+      <c r="D19" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="E19" s="2"/>
+      <c r="F19" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="G19" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="H19" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="I19" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="J19" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="K19" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="L19" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="M19" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="N19" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="O19" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="P19" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Q19" s="2"/>
+      <c r="R19" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="S19" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="T19" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="U19" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="V19" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="W19" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="X19" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Y19" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Z19" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AA19" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AB19" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AC19" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AD19" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AE19" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AF19" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="AG19" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AH19" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AI19" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ19" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK19" t="s" s="2">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="20" hidden="true">
+      <c r="A20" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="B20" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="C20" s="2"/>
+      <c r="D20" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="E20" s="2"/>
+      <c r="F20" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="G20" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="H20" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="I20" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="J20" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="K20" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="L20" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="M20" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="N20" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="O20" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="P20" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Q20" s="2"/>
+      <c r="R20" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="S20" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="T20" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="U20" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="V20" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="W20" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="X20" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Y20" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Z20" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AA20" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AB20" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AC20" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AD20" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AE20" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AF20" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="AG20" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AH20" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AI20" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ20" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK20" t="s" s="2">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="21" hidden="true">
+      <c r="A21" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="B21" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="C21" s="2"/>
+      <c r="D21" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="E21" s="2"/>
+      <c r="F21" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G21" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="H21" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="I21" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="J21" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="K21" t="s" s="2">
+        <v>65</v>
+      </c>
+      <c r="L21" t="s" s="2">
+        <v>66</v>
+      </c>
+      <c r="M21" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="N21" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="O21" s="2"/>
+      <c r="P21" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Q21" s="2"/>
+      <c r="R21" t="s" s="2">
+        <v>3</v>
+      </c>
+      <c r="S21" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="T21" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="U21" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="V21" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="W21" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="X21" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Y21" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Z21" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AA21" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AB21" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AC21" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AD21" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AE21" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AF21" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="AG21" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AH21" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AI21" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AJ21" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AK21" t="s" s="2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="22" hidden="true">
+      <c r="A22" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="B22" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="C22" s="2"/>
+      <c r="D22" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="E22" s="2"/>
+      <c r="F22" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="G22" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="H22" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="I22" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="J22" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="K22" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="L22" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="M22" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="N22" s="2"/>
+      <c r="O22" s="2"/>
+      <c r="P22" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Q22" s="2"/>
+      <c r="R22" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="S22" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="T22" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="U22" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="V22" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="W22" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="X22" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Y22" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Z22" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AA22" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AB22" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AC22" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AD22" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AE22" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AF22" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG22" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AH22" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AI22" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ22" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK22" t="s" s="2">
+        <v>70</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:AK15">
+  <autoFilter ref="A1:AK22">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -2224,7 +3105,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI14">
+  <conditionalFormatting sqref="A2:AI21">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/ExampleIG/output/StructureDefinition-hn-extension-representant.xlsx
+++ b/ExampleIG/output/StructureDefinition-hn-extension-representant.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AK$22</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AK$34</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="755" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1154" uniqueCount="217">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-03T00:58:12+01:00</t>
+    <t>2023-11-03T01:33:43+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -261,57 +261,180 @@
 </t>
   </si>
   <si>
-    <t>Extension.extension:idType</t>
-  </si>
-  <si>
-    <t>idType</t>
-  </si>
-  <si>
-    <t>Extension.extension:idType.id</t>
-  </si>
-  <si>
-    <t>Extension.extension:idType.extension</t>
-  </si>
-  <si>
-    <t>Extension.extension:idType.url</t>
-  </si>
-  <si>
-    <t>Extension.extension:idType.value[x]</t>
+    <t>Extension.extension:ident</t>
+  </si>
+  <si>
+    <t>ident</t>
+  </si>
+  <si>
+    <t>Extension.extension:ident.id</t>
+  </si>
+  <si>
+    <t>Extension.extension:ident.extension</t>
+  </si>
+  <si>
+    <t>Extension.extension:ident.url</t>
+  </si>
+  <si>
+    <t>Extension.extension:ident.value[x]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identifier
+</t>
+  </si>
+  <si>
+    <t>Extension.extension:ident.value[x].id</t>
+  </si>
+  <si>
+    <t>Extension.extension.value[x].id</t>
+  </si>
+  <si>
+    <t>Extension.extension:ident.value[x].extension</t>
+  </si>
+  <si>
+    <t>Extension.extension.value[x].extension</t>
+  </si>
+  <si>
+    <t>extensions
+user content</t>
+  </si>
+  <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
+    <t>Extension.extension:ident.value[x].use</t>
+  </si>
+  <si>
+    <t>Extension.extension.value[x].use</t>
+  </si>
+  <si>
+    <t xml:space="preserve">code
+</t>
+  </si>
+  <si>
+    <t>usual | official | temp | secondary | old (If known)</t>
+  </si>
+  <si>
+    <t>The purpose of this identifier.</t>
+  </si>
+  <si>
+    <t>Applications can assume that an identifier is permanent unless it explicitly says that it is temporary.</t>
+  </si>
+  <si>
+    <t>Allows the appropriate identifier for a particular context of use to be selected from among a set of identifiers.</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>Identifies the purpose for this identifier, if known .</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/identifier-use|4.0.1</t>
+  </si>
+  <si>
+    <t>Identifier.use</t>
+  </si>
+  <si>
+    <t>Role.code or implied by context</t>
+  </si>
+  <si>
+    <t>Extension.extension:ident.value[x].type</t>
+  </si>
+  <si>
+    <t>Extension.extension.value[x].type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CodeableConcept
+</t>
+  </si>
+  <si>
+    <t>Description of identifier</t>
+  </si>
+  <si>
+    <t>A coded type for the identifier that can be used to determine which identifier to use for a specific purpose.</t>
+  </si>
+  <si>
+    <t>This element deals only with general categories of identifiers.  It SHOULD not be used for codes that correspond 1..1 with the Identifier.system. Some identifiers may fall into multiple categories due to common usage.   Where the system is known, a type is unnecessary because the type is always part of the system definition. However systems often need to handle identifiers where the system is not known. There is not a 1:1 relationship between type and system, since many different systems have the same type.</t>
+  </si>
+  <si>
+    <t>Allows users to make use of identifiers when the identifier system is not known.</t>
+  </si>
+  <si>
+    <t>extensible</t>
+  </si>
+  <si>
+    <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/identifier-type</t>
+  </si>
+  <si>
+    <t>Identifier.type</t>
+  </si>
+  <si>
+    <t>Extension.extension:ident.value[x].type.id</t>
+  </si>
+  <si>
+    <t>Extension.extension.value[x].type.id</t>
+  </si>
+  <si>
+    <t>Extension.extension:ident.value[x].type.extension</t>
+  </si>
+  <si>
+    <t>Extension.extension.value[x].type.extension</t>
+  </si>
+  <si>
+    <t>Extension.extension:ident.value[x].type.coding</t>
+  </si>
+  <si>
+    <t>Extension.extension.value[x].type.coding</t>
   </si>
   <si>
     <t xml:space="preserve">Coding
 </t>
   </si>
   <si>
-    <t>Extension.extension:idType.value[x].id</t>
-  </si>
-  <si>
-    <t>Extension.extension.value[x].id</t>
-  </si>
-  <si>
-    <t>Extension.extension:idType.value[x].extension</t>
-  </si>
-  <si>
-    <t>Extension.extension.value[x].extension</t>
-  </si>
-  <si>
-    <t>extensions
-user content</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t>Extension.extension:idType.value[x].system</t>
-  </si>
-  <si>
-    <t>Extension.extension.value[x].system</t>
+    <t>Code defined by a terminology system</t>
+  </si>
+  <si>
+    <t>A reference to a code defined by a terminology system.</t>
+  </si>
+  <si>
+    <t>Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.</t>
+  </si>
+  <si>
+    <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
+  </si>
+  <si>
+    <t>CodeableConcept.coding</t>
+  </si>
+  <si>
+    <t>union(., ./translation)</t>
+  </si>
+  <si>
+    <t>Extension.extension:ident.value[x].type.coding.id</t>
+  </si>
+  <si>
+    <t>Extension.extension.value[x].type.coding.id</t>
+  </si>
+  <si>
+    <t>Extension.extension:ident.value[x].type.coding.extension</t>
+  </si>
+  <si>
+    <t>Extension.extension.value[x].type.coding.extension</t>
+  </si>
+  <si>
+    <t>Extension.extension:ident.value[x].type.coding.system</t>
+  </si>
+  <si>
+    <t>Extension.extension.value[x].type.coding.system</t>
   </si>
   <si>
     <t>Identity of the terminology system</t>
@@ -335,10 +458,10 @@
     <t>./codeSystem</t>
   </si>
   <si>
-    <t>Extension.extension:idType.value[x].version</t>
-  </si>
-  <si>
-    <t>Extension.extension.value[x].version</t>
+    <t>Extension.extension:ident.value[x].type.coding.version</t>
+  </si>
+  <si>
+    <t>Extension.extension.value[x].type.coding.version</t>
   </si>
   <si>
     <t>Version of the system - if relevant</t>
@@ -356,14 +479,10 @@
     <t>./codeSystemVersion</t>
   </si>
   <si>
-    <t>Extension.extension:idType.value[x].code</t>
-  </si>
-  <si>
-    <t>Extension.extension.value[x].code</t>
-  </si>
-  <si>
-    <t xml:space="preserve">code
-</t>
+    <t>Extension.extension:ident.value[x].type.coding.code</t>
+  </si>
+  <si>
+    <t>Extension.extension.value[x].type.coding.code</t>
   </si>
   <si>
     <t>Symbol in syntax defined by the system</t>
@@ -384,10 +503,10 @@
     <t>./code</t>
   </si>
   <si>
-    <t>Extension.extension:idType.value[x].display</t>
-  </si>
-  <si>
-    <t>Extension.extension.value[x].display</t>
+    <t>Extension.extension:ident.value[x].type.coding.display</t>
+  </si>
+  <si>
+    <t>Extension.extension.value[x].type.coding.display</t>
   </si>
   <si>
     <t>Representation defined by the system</t>
@@ -405,10 +524,10 @@
     <t>CV.displayName</t>
   </si>
   <si>
-    <t>Extension.extension:idType.value[x].userSelected</t>
-  </si>
-  <si>
-    <t>Extension.extension.value[x].userSelected</t>
+    <t>Extension.extension:ident.value[x].type.coding.userSelected</t>
+  </si>
+  <si>
+    <t>Extension.extension.value[x].type.coding.userSelected</t>
   </si>
   <si>
     <t xml:space="preserve">boolean
@@ -431,6 +550,140 @@
   </si>
   <si>
     <t>CD.codingRationale</t>
+  </si>
+  <si>
+    <t>Extension.extension:ident.value[x].type.text</t>
+  </si>
+  <si>
+    <t>Extension.extension.value[x].type.text</t>
+  </si>
+  <si>
+    <t>Plain text representation of the concept</t>
+  </si>
+  <si>
+    <t>A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
+  </si>
+  <si>
+    <t>Very often the text is the same as a displayName of one of the codings.</t>
+  </si>
+  <si>
+    <t>The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
+  </si>
+  <si>
+    <t>CodeableConcept.text</t>
+  </si>
+  <si>
+    <t>./originalText[mediaType/code="text/plain"]/data</t>
+  </si>
+  <si>
+    <t>Extension.extension:ident.value[x].system</t>
+  </si>
+  <si>
+    <t>Extension.extension.value[x].system</t>
+  </si>
+  <si>
+    <t>The namespace for the identifier value</t>
+  </si>
+  <si>
+    <t>Establishes the namespace for the value - that is, a URL that describes a set values that are unique.</t>
+  </si>
+  <si>
+    <t>Identifier.system is always case sensitive.</t>
+  </si>
+  <si>
+    <t>There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
+  </si>
+  <si>
+    <t>http://www.acme.com/identifiers/patient</t>
+  </si>
+  <si>
+    <t>Identifier.system</t>
+  </si>
+  <si>
+    <t>II.root or Role.id.root</t>
+  </si>
+  <si>
+    <t>Extension.extension:ident.value[x].value</t>
+  </si>
+  <si>
+    <t>Extension.extension.value[x].value</t>
+  </si>
+  <si>
+    <t>The value that is unique</t>
+  </si>
+  <si>
+    <t>The portion of the identifier typically relevant to the user and which is unique within the context of the system.</t>
+  </si>
+  <si>
+    <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](http://hl7.org/fhir/R4/extension-rendered-value.html). Identifier.value is to be treated as case sensitive unless knowledge of the Identifier.system allows the processer to be confident that non-case-sensitive processing is safe.</t>
+  </si>
+  <si>
+    <t>123456</t>
+  </si>
+  <si>
+    <t>Identifier.value</t>
+  </si>
+  <si>
+    <t>II.extension or II.root if system indicates OID or GUID (Or Role.id.extension or root)</t>
+  </si>
+  <si>
+    <t>Extension.extension:ident.value[x].period</t>
+  </si>
+  <si>
+    <t>Extension.extension.value[x].period</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Period
+</t>
+  </si>
+  <si>
+    <t>Time period when id is/was valid for use</t>
+  </si>
+  <si>
+    <t>Time period during which identifier is/was valid for use.</t>
+  </si>
+  <si>
+    <t>A Period specifies a range of time; the context of use will specify whether the entire range applies (e.g. "the patient was an inpatient of the hospital for this time range") or one value from the range applies (e.g. "give to the patient between these two times").
+Period is not used for a duration (a measure of elapsed time). See [Duration](http://hl7.org/fhir/R4/datatypes.html#Duration).</t>
+  </si>
+  <si>
+    <t>Identifier.period</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+per-1:If present, start SHALL have a lower value than end {start.hasValue().not() or end.hasValue().not() or (start &lt;= end)}</t>
+  </si>
+  <si>
+    <t>Role.effectiveTime or implied by context</t>
+  </si>
+  <si>
+    <t>Extension.extension:ident.value[x].assigner</t>
+  </si>
+  <si>
+    <t>Extension.extension.value[x].assigner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Organization)
+</t>
+  </si>
+  <si>
+    <t>Organization that issued id (may be just text)</t>
+  </si>
+  <si>
+    <t>Organization that issued/manages the identifier.</t>
+  </si>
+  <si>
+    <t>The Identifier.assigner may omit the .reference element and only contain a .display element reflecting the name or other textual information about the assigning organization.</t>
+  </si>
+  <si>
+    <t>Identifier.assigner</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ref-1:SHALL have a contained resource if a local reference is provided {reference.startsWith('#').not() or (reference.substring(1).trace('url') in %rootResource.contained.id.trace('ids'))}</t>
+  </si>
+  <si>
+    <t>II.assigningAuthorityName but note that this is an improper use by the definition of the field.  Also Role.scoper</t>
   </si>
   <si>
     <t>base64Binary
@@ -752,7 +1005,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AK22"/>
+  <dimension ref="A1:AK34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -761,41 +1014,41 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="45.2890625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="38.72265625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="7.015625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="1" max="1" width="54.99609375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="49.7578125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="6.09765625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="12.3828125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="6" max="6" width="2.15234375" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="2.15234375" customWidth="true" bestFit="true"/>
     <col min="8" max="8" width="2.109375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="1.0390625" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="2.109375" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="255.0" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="169.35546875" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="221.59375" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="1.0390625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="38.8125" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="1.0390625" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="1.0390625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="1.0390625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="1.0390625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="1.0390625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="1.0390625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="10.19140625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="95.56640625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="44.3984375" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="1.0390625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="9.546875" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="40.0390625" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="1.0390625" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="5.60546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="19.27734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="23.3359375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="33" max="33" width="2.15234375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="2.15234375" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="20.03125" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="99.69140625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1644,7 +1897,7 @@
         <v>43</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="H9" t="s" s="2">
         <v>58</v>
@@ -2375,25 +2628,25 @@
         <v>36</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="J16" t="s" s="2">
         <v>58</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>65</v>
+        <v>95</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O16" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>36</v>
@@ -2403,7 +2656,7 @@
         <v>36</v>
       </c>
       <c r="S16" t="s" s="2">
-        <v>99</v>
+        <v>36</v>
       </c>
       <c r="T16" t="s" s="2">
         <v>36</v>
@@ -2418,13 +2671,13 @@
         <v>36</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>36</v>
+        <v>100</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>36</v>
+        <v>101</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>36</v>
+        <v>102</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>36</v>
@@ -2442,7 +2695,7 @@
         <v>36</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>37</v>
@@ -2457,15 +2710,15 @@
         <v>77</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>101</v>
+        <v>104</v>
       </c>
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -2488,18 +2741,20 @@
         <v>58</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>44</v>
+        <v>107</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="O17" s="2"/>
+        <v>110</v>
+      </c>
+      <c r="O17" t="s" s="2">
+        <v>111</v>
+      </c>
       <c r="P17" t="s" s="2">
         <v>36</v>
       </c>
@@ -2523,13 +2778,13 @@
         <v>36</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>36</v>
+        <v>112</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>36</v>
+        <v>113</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>36</v>
+        <v>114</v>
       </c>
       <c r="AA17" t="s" s="2">
         <v>36</v>
@@ -2547,7 +2802,7 @@
         <v>36</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>37</v>
@@ -2562,15 +2817,15 @@
         <v>77</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -2590,23 +2845,19 @@
         <v>36</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>111</v>
+        <v>44</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>112</v>
+        <v>45</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="O18" t="s" s="2">
-        <v>115</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
         <v>36</v>
       </c>
@@ -2654,7 +2905,7 @@
         <v>36</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>116</v>
+        <v>47</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>37</v>
@@ -2663,13 +2914,13 @@
         <v>43</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>77</v>
+        <v>36</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>117</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19" hidden="true">
@@ -2681,14 +2932,14 @@
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>36</v>
+        <v>89</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
         <v>37</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>36</v>
@@ -2697,23 +2948,21 @@
         <v>36</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>121</v>
+        <v>91</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="O19" t="s" s="2">
-        <v>122</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
         <v>36</v>
       </c>
@@ -2749,42 +2998,42 @@
         <v>36</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="AC19" t="s" s="2">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="AD19" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>123</v>
+        <v>55</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>77</v>
+        <v>41</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>124</v>
+        <v>70</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -2795,7 +3044,7 @@
         <v>37</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>36</v>
@@ -2807,19 +3056,19 @@
         <v>58</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="O20" t="s" s="2">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>36</v>
@@ -2868,13 +3117,13 @@
         <v>36</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>40</v>
@@ -2883,15 +3132,15 @@
         <v>77</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>133</v>
+        <v>128</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>69</v>
+        <v>129</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>69</v>
+        <v>130</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -2899,7 +3148,7 @@
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>43</v>
@@ -2914,24 +3163,22 @@
         <v>36</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>65</v>
+        <v>44</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>67</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>68</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="N21" s="2"/>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
         <v>36</v>
       </c>
       <c r="Q21" s="2"/>
       <c r="R21" t="s" s="2">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="S21" t="s" s="2">
         <v>36</v>
@@ -2973,10 +3220,10 @@
         <v>36</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>69</v>
+        <v>47</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="AH21" t="s" s="2">
         <v>43</v>
@@ -2988,26 +3235,26 @@
         <v>36</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>70</v>
+        <v>48</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>76</v>
+        <v>131</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>76</v>
+        <v>132</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>36</v>
+        <v>89</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
         <v>37</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>36</v>
@@ -3019,15 +3266,17 @@
         <v>36</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>134</v>
+        <v>50</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="N22" s="2"/>
+        <v>91</v>
+      </c>
+      <c r="N22" t="s" s="2">
+        <v>92</v>
+      </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
         <v>36</v>
@@ -3064,38 +3313,1308 @@
         <v>36</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="AC22" t="s" s="2">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="AD22" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>76</v>
+        <v>55</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>77</v>
+        <v>41</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>70</v>
       </c>
     </row>
+    <row r="23" hidden="true">
+      <c r="A23" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="B23" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="C23" s="2"/>
+      <c r="D23" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="E23" s="2"/>
+      <c r="F23" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="G23" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="H23" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="I23" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="J23" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="K23" t="s" s="2">
+        <v>65</v>
+      </c>
+      <c r="L23" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="M23" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="N23" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="O23" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="P23" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Q23" s="2"/>
+      <c r="R23" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="S23" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="T23" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="U23" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="V23" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="W23" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="X23" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Y23" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Z23" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AA23" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AB23" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AC23" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AD23" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AE23" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AF23" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="AG23" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AH23" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AI23" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ23" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK23" t="s" s="2">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="24" hidden="true">
+      <c r="A24" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="B24" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="C24" s="2"/>
+      <c r="D24" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="E24" s="2"/>
+      <c r="F24" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="G24" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="H24" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="I24" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="J24" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="K24" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="L24" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="M24" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="N24" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="O24" s="2"/>
+      <c r="P24" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Q24" s="2"/>
+      <c r="R24" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="S24" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="T24" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="U24" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="V24" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="W24" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="X24" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Y24" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Z24" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AA24" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AB24" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AC24" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AD24" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AE24" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AF24" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="AG24" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AH24" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AI24" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ24" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK24" t="s" s="2">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="25" hidden="true">
+      <c r="A25" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="B25" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="C25" s="2"/>
+      <c r="D25" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="E25" s="2"/>
+      <c r="F25" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="G25" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="H25" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="I25" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="J25" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="K25" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="L25" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="M25" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="N25" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="O25" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="P25" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Q25" s="2"/>
+      <c r="R25" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="S25" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="T25" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="U25" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="V25" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="W25" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="X25" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Y25" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Z25" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AA25" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AB25" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AC25" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AD25" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AE25" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AF25" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="AG25" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AH25" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AI25" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ25" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK25" t="s" s="2">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="26" hidden="true">
+      <c r="A26" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="B26" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="C26" s="2"/>
+      <c r="D26" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="E26" s="2"/>
+      <c r="F26" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="G26" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="H26" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="I26" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="J26" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="K26" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="L26" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="M26" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="N26" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="O26" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="P26" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Q26" s="2"/>
+      <c r="R26" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="S26" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="T26" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="U26" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="V26" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="W26" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="X26" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Y26" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Z26" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AA26" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AB26" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AC26" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AD26" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AE26" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AF26" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="AG26" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AH26" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AI26" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ26" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK26" t="s" s="2">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="27" hidden="true">
+      <c r="A27" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="B27" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="C27" s="2"/>
+      <c r="D27" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="E27" s="2"/>
+      <c r="F27" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="G27" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="H27" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="I27" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="J27" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="K27" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="L27" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="M27" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="N27" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="O27" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="P27" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Q27" s="2"/>
+      <c r="R27" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="S27" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="T27" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="U27" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="V27" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="W27" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="X27" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Y27" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Z27" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AA27" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AB27" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AC27" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AD27" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AE27" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AF27" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="AG27" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AH27" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AI27" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ27" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK27" t="s" s="2">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="28" hidden="true">
+      <c r="A28" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="B28" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="C28" s="2"/>
+      <c r="D28" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="E28" s="2"/>
+      <c r="F28" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="G28" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="H28" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="I28" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="J28" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="K28" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="L28" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="M28" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="N28" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="O28" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="P28" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Q28" s="2"/>
+      <c r="R28" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="S28" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="T28" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="U28" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="V28" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="W28" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="X28" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Y28" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Z28" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AA28" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AB28" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AC28" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AD28" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AE28" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AF28" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="AG28" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AH28" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AI28" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ28" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK28" t="s" s="2">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="29" hidden="true">
+      <c r="A29" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="B29" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="C29" s="2"/>
+      <c r="D29" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="E29" s="2"/>
+      <c r="F29" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="G29" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="H29" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="I29" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="J29" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="K29" t="s" s="2">
+        <v>65</v>
+      </c>
+      <c r="L29" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="M29" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="N29" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="O29" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="P29" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Q29" s="2"/>
+      <c r="R29" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="S29" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="T29" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="U29" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="V29" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="W29" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="X29" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Y29" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Z29" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AA29" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AB29" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AC29" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AD29" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AE29" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AF29" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="AG29" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AH29" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AI29" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ29" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK29" t="s" s="2">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="30" hidden="true">
+      <c r="A30" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="B30" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="C30" s="2"/>
+      <c r="D30" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="E30" s="2"/>
+      <c r="F30" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="G30" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="H30" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="I30" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="J30" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="K30" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="L30" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="M30" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="N30" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="O30" s="2"/>
+      <c r="P30" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Q30" s="2"/>
+      <c r="R30" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="S30" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="T30" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="U30" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="V30" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="W30" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="X30" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Y30" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Z30" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AA30" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AB30" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AC30" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AD30" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AE30" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AF30" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="AG30" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AH30" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AI30" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ30" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK30" t="s" s="2">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="31" hidden="true">
+      <c r="A31" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="B31" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="C31" s="2"/>
+      <c r="D31" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="E31" s="2"/>
+      <c r="F31" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="G31" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="H31" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="I31" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="J31" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="K31" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="L31" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="M31" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="N31" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="O31" s="2"/>
+      <c r="P31" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Q31" s="2"/>
+      <c r="R31" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="S31" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="T31" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="U31" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="V31" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="W31" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="X31" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Y31" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Z31" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AA31" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AB31" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AC31" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AD31" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AE31" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AF31" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="AG31" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AH31" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AI31" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ31" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="AK31" t="s" s="2">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="32" hidden="true">
+      <c r="A32" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="B32" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="C32" s="2"/>
+      <c r="D32" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="E32" s="2"/>
+      <c r="F32" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="G32" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="H32" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="I32" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="J32" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="K32" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="L32" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="M32" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="N32" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="O32" s="2"/>
+      <c r="P32" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Q32" s="2"/>
+      <c r="R32" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="S32" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="T32" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="U32" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="V32" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="W32" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="X32" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Y32" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Z32" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AA32" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AB32" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AC32" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AD32" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AE32" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AF32" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="AG32" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AH32" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AI32" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ32" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="AK32" t="s" s="2">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="33" hidden="true">
+      <c r="A33" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="B33" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="C33" s="2"/>
+      <c r="D33" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="E33" s="2"/>
+      <c r="F33" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G33" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="H33" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="I33" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="J33" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="K33" t="s" s="2">
+        <v>65</v>
+      </c>
+      <c r="L33" t="s" s="2">
+        <v>66</v>
+      </c>
+      <c r="M33" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="N33" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="O33" s="2"/>
+      <c r="P33" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Q33" s="2"/>
+      <c r="R33" t="s" s="2">
+        <v>3</v>
+      </c>
+      <c r="S33" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="T33" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="U33" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="V33" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="W33" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="X33" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Y33" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Z33" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AA33" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AB33" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AC33" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AD33" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AE33" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AF33" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="AG33" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AH33" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AI33" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AJ33" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AK33" t="s" s="2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="34" hidden="true">
+      <c r="A34" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="B34" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="C34" s="2"/>
+      <c r="D34" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="E34" s="2"/>
+      <c r="F34" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="G34" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="H34" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="I34" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="J34" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="K34" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="L34" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="M34" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="N34" s="2"/>
+      <c r="O34" s="2"/>
+      <c r="P34" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Q34" s="2"/>
+      <c r="R34" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="S34" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="T34" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="U34" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="V34" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="W34" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="X34" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Y34" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Z34" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AA34" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AB34" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AC34" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AD34" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AE34" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AF34" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG34" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AH34" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AI34" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ34" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK34" t="s" s="2">
+        <v>70</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:AK22">
+  <autoFilter ref="A1:AK34">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -3105,7 +4624,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI21">
+  <conditionalFormatting sqref="A2:AI33">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/ExampleIG/output/StructureDefinition-hn-extension-representant.xlsx
+++ b/ExampleIG/output/StructureDefinition-hn-extension-representant.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-03T01:33:43+01:00</t>
+    <t>2023-11-03T08:05:33+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -3356,7 +3356,7 @@
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>43</v>
@@ -3568,7 +3568,7 @@
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>43</v>
@@ -4103,7 +4103,7 @@
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>43</v>

--- a/ExampleIG/output/StructureDefinition-hn-extension-representant.xlsx
+++ b/ExampleIG/output/StructureDefinition-hn-extension-representant.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1154" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1154" uniqueCount="221">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-03T08:05:33+01:00</t>
+    <t>2023-11-04T02:36:33+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -244,14 +244,17 @@
     <t>Extension.extension.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">HumanName
+    <t xml:space="preserve">HumanName {http://hl7.no/fhir/StructureDefinition/no-basis-HumanName}
 </t>
   </si>
   <si>
-    <t>Value of extension</t>
-  </si>
-  <si>
-    <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/R4/extensibility.html) for a list).</t>
+    <t>Norwegian human name</t>
+  </si>
+  <si>
+    <t>Defines the format of norwegian human name according to norwegian legislation (lov om personnavn).</t>
+  </si>
+  <si>
+    <t>Names may be changed, or repudiated, or people may have different names in different contexts. Names may be divided into parts of different type that have variable significance depending on context, though the division into parts does not always matter. With personal names, the different parts might or might not be imbued with some implicit meaning; various cultures associate different importance with the name parts and the degree to which systems must care about name parts around the world varies widely.</t>
   </si>
   <si>
     <t>Extension.value[x]</t>
@@ -261,6 +264,9 @@
 </t>
   </si>
   <si>
+    <t>EN (actually, PN)</t>
+  </si>
+  <si>
     <t>Extension.extension:ident</t>
   </si>
   <si>
@@ -283,6 +289,12 @@
 </t>
   </si>
   <si>
+    <t>Value of extension</t>
+  </si>
+  <si>
+    <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/R4/extensibility.html) for a list).</t>
+  </si>
+  <si>
     <t>Extension.extension:ident.value[x].id</t>
   </si>
   <si>
@@ -413,6 +425,9 @@
     <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
   </si>
   <si>
+    <t>http://helsenorge.no/fhir/ValueSet/cs-8116-Dnr-Fnr-vs</t>
+  </si>
+  <si>
     <t>CodeableConcept.coding</t>
   </si>
   <si>
@@ -447,9 +462,6 @@
   </si>
   <si>
     <t>Need to be unambiguous about the source of the definition of the symbol.</t>
-  </si>
-  <si>
-    <t>urn:oid:2.16.578.1.12.4.1.1.8116</t>
   </si>
   <si>
     <t>Coding.system</t>
@@ -1037,7 +1049,7 @@
     <col min="23" max="23" width="1.0390625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="10.19140625" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="95.56640625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="44.3984375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="50.46484375" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="1.0390625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="9.546875" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="40.0390625" customWidth="true" bestFit="true"/>
@@ -1812,7 +1824,9 @@
       <c r="M8" t="s" s="2">
         <v>75</v>
       </c>
-      <c r="N8" s="2"/>
+      <c r="N8" t="s" s="2">
+        <v>76</v>
+      </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
         <v>36</v>
@@ -1861,7 +1875,7 @@
         <v>36</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>37</v>
@@ -1873,21 +1887,21 @@
         <v>40</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>70</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B9" t="s" s="2">
         <v>49</v>
       </c>
       <c r="C9" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D9" t="s" s="2">
         <v>36</v>
@@ -1897,7 +1911,7 @@
         <v>43</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="H9" t="s" s="2">
         <v>58</v>
@@ -1986,7 +2000,7 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B10" t="s" s="2">
         <v>60</v>
@@ -2089,7 +2103,7 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B11" t="s" s="2">
         <v>62</v>
@@ -2192,7 +2206,7 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B12" t="s" s="2">
         <v>64</v>
@@ -2235,7 +2249,7 @@
       </c>
       <c r="Q12" s="2"/>
       <c r="R12" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="S12" t="s" s="2">
         <v>36</v>
@@ -2297,7 +2311,7 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B13" t="s" s="2">
         <v>72</v>
@@ -2308,7 +2322,7 @@
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G13" t="s" s="2">
         <v>43</v>
@@ -2323,13 +2337,13 @@
         <v>36</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
@@ -2380,7 +2394,7 @@
         <v>36</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>37</v>
@@ -2392,7 +2406,7 @@
         <v>40</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>70</v>
@@ -2400,10 +2414,10 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -2503,14 +2517,14 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
@@ -2532,13 +2546,13 @@
         <v>50</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
@@ -2608,10 +2622,10 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -2634,19 +2648,19 @@
         <v>58</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="O16" t="s" s="2">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>36</v>
@@ -2671,13 +2685,13 @@
         <v>36</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>36</v>
@@ -2695,7 +2709,7 @@
         <v>36</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>37</v>
@@ -2707,18 +2721,18 @@
         <v>40</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -2741,19 +2755,19 @@
         <v>58</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="O17" t="s" s="2">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="P17" t="s" s="2">
         <v>36</v>
@@ -2778,13 +2792,13 @@
         <v>36</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="AA17" t="s" s="2">
         <v>36</v>
@@ -2802,7 +2816,7 @@
         <v>36</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>37</v>
@@ -2814,18 +2828,18 @@
         <v>40</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -2925,14 +2939,14 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
@@ -2954,13 +2968,13 @@
         <v>50</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
@@ -3030,10 +3044,10 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3041,10 +3055,10 @@
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>36</v>
@@ -3056,19 +3070,19 @@
         <v>58</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="O20" t="s" s="2">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>36</v>
@@ -3093,13 +3107,11 @@
         <v>36</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="Y20" t="s" s="2">
-        <v>36</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="Y20" s="2"/>
       <c r="Z20" t="s" s="2">
-        <v>36</v>
+        <v>131</v>
       </c>
       <c r="AA20" t="s" s="2">
         <v>36</v>
@@ -3117,7 +3129,7 @@
         <v>36</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>37</v>
@@ -3129,18 +3141,18 @@
         <v>40</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>128</v>
+        <v>133</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3240,14 +3252,14 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
@@ -3269,13 +3281,13 @@
         <v>50</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
@@ -3345,10 +3357,10 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -3374,16 +3386,16 @@
         <v>65</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="O23" t="s" s="2">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>36</v>
@@ -3393,7 +3405,7 @@
         <v>36</v>
       </c>
       <c r="S23" t="s" s="2">
-        <v>139</v>
+        <v>36</v>
       </c>
       <c r="T23" t="s" s="2">
         <v>36</v>
@@ -3432,7 +3444,7 @@
         <v>36</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>37</v>
@@ -3444,18 +3456,18 @@
         <v>40</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>141</v>
+        <v>145</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -3481,13 +3493,13 @@
         <v>44</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
@@ -3537,7 +3549,7 @@
         <v>36</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>37</v>
@@ -3549,18 +3561,18 @@
         <v>40</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>148</v>
+        <v>152</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -3583,19 +3595,19 @@
         <v>58</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="O25" t="s" s="2">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>36</v>
@@ -3644,7 +3656,7 @@
         <v>36</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>37</v>
@@ -3656,18 +3668,18 @@
         <v>40</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -3693,16 +3705,16 @@
         <v>44</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="O26" t="s" s="2">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>36</v>
@@ -3751,7 +3763,7 @@
         <v>36</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>37</v>
@@ -3763,18 +3775,18 @@
         <v>40</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -3797,19 +3809,19 @@
         <v>58</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="O27" t="s" s="2">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>36</v>
@@ -3858,7 +3870,7 @@
         <v>36</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>37</v>
@@ -3870,18 +3882,18 @@
         <v>40</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>172</v>
+        <v>176</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -3907,16 +3919,16 @@
         <v>44</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="O28" t="s" s="2">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>36</v>
@@ -3965,7 +3977,7 @@
         <v>36</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>37</v>
@@ -3977,18 +3989,18 @@
         <v>40</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>180</v>
+        <v>184</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4014,16 +4026,16 @@
         <v>65</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="O29" t="s" s="2">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="P29" t="s" s="2">
         <v>36</v>
@@ -4036,7 +4048,7 @@
         <v>36</v>
       </c>
       <c r="T29" t="s" s="2">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="U29" t="s" s="2">
         <v>36</v>
@@ -4072,7 +4084,7 @@
         <v>36</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>37</v>
@@ -4084,18 +4096,18 @@
         <v>40</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>189</v>
+        <v>193</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4121,13 +4133,13 @@
         <v>44</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
@@ -4141,7 +4153,7 @@
         <v>36</v>
       </c>
       <c r="T30" t="s" s="2">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="U30" t="s" s="2">
         <v>36</v>
@@ -4177,7 +4189,7 @@
         <v>36</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>37</v>
@@ -4189,18 +4201,18 @@
         <v>40</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>197</v>
+        <v>201</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -4223,16 +4235,16 @@
         <v>58</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
@@ -4282,7 +4294,7 @@
         <v>36</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>37</v>
@@ -4294,18 +4306,18 @@
         <v>40</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>206</v>
+        <v>210</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -4328,16 +4340,16 @@
         <v>58</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
@@ -4387,7 +4399,7 @@
         <v>36</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>37</v>
@@ -4399,10 +4411,10 @@
         <v>40</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>215</v>
+        <v>219</v>
       </c>
     </row>
     <row r="33" hidden="true">
@@ -4512,10 +4524,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -4538,13 +4550,13 @@
         <v>36</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -4595,7 +4607,7 @@
         <v>36</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>37</v>
@@ -4607,7 +4619,7 @@
         <v>40</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>70</v>

--- a/ExampleIG/output/StructureDefinition-hn-extension-representant.xlsx
+++ b/ExampleIG/output/StructureDefinition-hn-extension-representant.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-04T02:36:33+01:00</t>
+    <t>2023-11-04T02:45:56+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/StructureDefinition-hn-extension-representant.xlsx
+++ b/ExampleIG/output/StructureDefinition-hn-extension-representant.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-04T02:45:56+01:00</t>
+    <t>2023-11-04T23:57:32+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/StructureDefinition-hn-extension-representant.xlsx
+++ b/ExampleIG/output/StructureDefinition-hn-extension-representant.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1154" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1155" uniqueCount="222">
   <si>
     <t>Property</t>
   </si>
@@ -51,7 +51,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>draft</t>
+    <t>active</t>
   </si>
   <si>
     <t>Experimental</t>
@@ -60,10 +60,13 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-04T23:57:32+01:00</t>
+    <t>2023-11-05T00:35:42+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
+  </si>
+  <si>
+    <t>Helsenorge</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -924,90 +927,92 @@
       <c r="A9" t="s" s="2">
         <v>15</v>
       </c>
-      <c r="B9" s="2"/>
+      <c r="B9" t="s" s="2">
+        <v>16</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B12" s="2"/>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -1065,3564 +1070,3564 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B1" t="s" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E1" s="2"/>
       <c r="F1" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G1" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H1" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I1" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J1" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K1" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L1" t="s" s="2">
         <v>9</v>
       </c>
       <c r="M1" t="s" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="N1" s="2"/>
       <c r="O1" s="2"/>
       <c r="P1" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Q1" s="2"/>
       <c r="R1" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="S1" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="T1" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="U1" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="V1" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="W1" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="X1" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Y1" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Z1" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AA1" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AB1" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AC1" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AD1" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AE1" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AF1" t="s" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AG1" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AH1" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AI1" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AJ1" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AK1" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" hidden="true">
       <c r="A2" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Q2" s="2"/>
       <c r="R2" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AG2" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Q3" s="2"/>
       <c r="R3" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C4" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D4" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Q4" s="2"/>
       <c r="R4" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Q5" s="2"/>
       <c r="R5" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Q6" s="2"/>
       <c r="R6" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Q7" s="2"/>
       <c r="R7" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S7" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="T7" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="U7" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Y7" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Z7" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AA7" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AD7" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="S8" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="T8" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="U8" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="V8" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="W8" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="X8" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Y8" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Z8" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AA8" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AC8" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AD8" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C9" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D9" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Q9" s="2"/>
       <c r="R9" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="S9" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="T9" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="U9" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="V9" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="W9" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AC9" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Q10" s="2"/>
       <c r="R10" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="S10" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="T10" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="U10" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="V10" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Z10" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AA10" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AC10" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AD10" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Q11" s="2"/>
       <c r="R11" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="S11" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="T11" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="U11" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="V11" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AA11" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AC11" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AD11" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Q12" s="2"/>
       <c r="R12" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="T12" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="U12" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="V12" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AC12" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="S13" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="T13" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="U13" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="V13" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AA13" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AD13" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Q14" s="2"/>
       <c r="R14" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="S14" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="T14" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="U14" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="V14" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AA14" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AC14" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AD14" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Q15" s="2"/>
       <c r="R15" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="S15" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="T15" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="U15" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="V15" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AA15" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AC15" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="O16" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="P16" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Q16" s="2"/>
       <c r="R16" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="S16" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="T16" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="U16" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="V16" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AC16" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AD16" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="O17" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="P17" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Q17" s="2"/>
       <c r="R17" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="S17" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="U17" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="V17" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="S18" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="U18" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="V18" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AA18" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AD18" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Q19" s="2"/>
       <c r="R19" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="S19" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="T19" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="U19" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="V19" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AA19" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AC19" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AD19" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="O20" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="P20" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Q20" s="2"/>
       <c r="R20" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="S20" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="T20" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="U20" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="V20" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="Y20" s="2"/>
       <c r="Z20" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AC20" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Q21" s="2"/>
       <c r="R21" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="S21" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="T21" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="U21" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="V21" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AA21" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AC21" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AD21" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Q22" s="2"/>
       <c r="R22" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="S22" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="T22" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="U22" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="V22" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AC22" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="O23" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="P23" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Q23" s="2"/>
       <c r="R23" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="S23" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="T23" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="U23" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="V23" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AA23" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AC23" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AD23" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Q24" s="2"/>
       <c r="R24" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="S24" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="T24" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="U24" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="V24" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AA24" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AC24" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AD24" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="O25" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="P25" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Q25" s="2"/>
       <c r="R25" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="S25" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="T25" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="U25" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="V25" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AC25" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AD25" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="O26" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="P26" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Q26" s="2"/>
       <c r="R26" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="S26" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="T26" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="U26" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="V26" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AC26" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AD26" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="O27" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="P27" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Q27" s="2"/>
       <c r="R27" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="S27" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="T27" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="U27" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="V27" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AA27" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AC27" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AD27" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="O28" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="P28" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Q28" s="2"/>
       <c r="R28" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="S28" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="T28" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="U28" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="V28" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AA28" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AC28" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AD28" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="O29" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="P29" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Q29" s="2"/>
       <c r="R29" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="S29" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="T29" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="U29" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="V29" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AA29" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AC29" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AD29" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Q30" s="2"/>
       <c r="R30" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="S30" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="T30" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="U30" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="V30" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AA30" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AC30" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AD30" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Q31" s="2"/>
       <c r="R31" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="S31" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="T31" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="U31" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="V31" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AA31" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AC31" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AD31" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Q32" s="2"/>
       <c r="R32" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="S32" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="T32" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="U32" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="V32" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AA32" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AC32" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AD32" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Q33" s="2"/>
       <c r="R33" t="s" s="2">
         <v>3</v>
       </c>
       <c r="S33" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="T33" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="U33" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="V33" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AA33" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AC33" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AD33" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Q34" s="2"/>
       <c r="R34" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="S34" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="T34" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="U34" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="V34" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AA34" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AC34" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AD34" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>

--- a/ExampleIG/output/StructureDefinition-hn-extension-representant.xlsx
+++ b/ExampleIG/output/StructureDefinition-hn-extension-representant.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-05T00:35:42+01:00</t>
+    <t>2023-11-05T15:52:07+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/StructureDefinition-hn-extension-representant.xlsx
+++ b/ExampleIG/output/StructureDefinition-hn-extension-representant.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-05T15:52:07+01:00</t>
+    <t>2023-11-05T18:57:51+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/StructureDefinition-hn-extension-representant.xlsx
+++ b/ExampleIG/output/StructureDefinition-hn-extension-representant.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-05T18:57:51+01:00</t>
+    <t>2023-11-05T19:05:15+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/StructureDefinition-hn-extension-representant.xlsx
+++ b/ExampleIG/output/StructureDefinition-hn-extension-representant.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>0.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-05T19:05:15+01:00</t>
+    <t>2023-11-13T19:18:44+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/StructureDefinition-hn-extension-representant.xlsx
+++ b/ExampleIG/output/StructureDefinition-hn-extension-representant.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-13T19:18:44+01:00</t>
+    <t>2023-11-13T21:18:10+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/StructureDefinition-hn-extension-representant.xlsx
+++ b/ExampleIG/output/StructureDefinition-hn-extension-representant.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-13T21:18:10+01:00</t>
+    <t>2023-11-15T00:00:31+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/StructureDefinition-hn-extension-representant.xlsx
+++ b/ExampleIG/output/StructureDefinition-hn-extension-representant.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-15T00:00:31+01:00</t>
+    <t>2023-11-15T00:11:46+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/StructureDefinition-hn-extension-representant.xlsx
+++ b/ExampleIG/output/StructureDefinition-hn-extension-representant.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-15T00:11:46+01:00</t>
+    <t>2023-11-15T00:20:08+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/StructureDefinition-hn-extension-representant.xlsx
+++ b/ExampleIG/output/StructureDefinition-hn-extension-representant.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-15T00:20:08+01:00</t>
+    <t>2023-11-15T00:28:16+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/StructureDefinition-hn-extension-representant.xlsx
+++ b/ExampleIG/output/StructureDefinition-hn-extension-representant.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-15T00:28:16+01:00</t>
+    <t>2023-11-15T22:57:05+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/StructureDefinition-hn-extension-representant.xlsx
+++ b/ExampleIG/output/StructureDefinition-hn-extension-representant.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-15T22:57:05+01:00</t>
+    <t>2023-11-15T23:05:14+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/StructureDefinition-hn-extension-representant.xlsx
+++ b/ExampleIG/output/StructureDefinition-hn-extension-representant.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-15T23:05:14+01:00</t>
+    <t>2023-11-17T13:16:17+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/StructureDefinition-hn-extension-representant.xlsx
+++ b/ExampleIG/output/StructureDefinition-hn-extension-representant.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-17T13:16:17+01:00</t>
+    <t>2023-12-12T23:44:27+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/StructureDefinition-hn-extension-representant.xlsx
+++ b/ExampleIG/output/StructureDefinition-hn-extension-representant.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-12T23:44:27+01:00</t>
+    <t>2023-12-13T00:38:53+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/StructureDefinition-hn-extension-representant.xlsx
+++ b/ExampleIG/output/StructureDefinition-hn-extension-representant.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-13T00:38:53+01:00</t>
+    <t>2023-12-13T00:44:24+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/StructureDefinition-hn-extension-representant.xlsx
+++ b/ExampleIG/output/StructureDefinition-hn-extension-representant.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-13T00:44:24+01:00</t>
+    <t>2023-12-13T00:53:03+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/StructureDefinition-hn-extension-representant.xlsx
+++ b/ExampleIG/output/StructureDefinition-hn-extension-representant.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-13T00:53:03+01:00</t>
+    <t>2023-12-13T00:58:42+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/StructureDefinition-hn-extension-representant.xlsx
+++ b/ExampleIG/output/StructureDefinition-hn-extension-representant.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-13T00:58:42+01:00</t>
+    <t>2023-12-13T10:40:21+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/StructureDefinition-hn-extension-representant.xlsx
+++ b/ExampleIG/output/StructureDefinition-hn-extension-representant.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-13T10:40:21+01:00</t>
+    <t>2023-12-13T11:06:00+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/StructureDefinition-hn-extension-representant.xlsx
+++ b/ExampleIG/output/StructureDefinition-hn-extension-representant.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-13T11:06:00+01:00</t>
+    <t>2023-12-13T11:11:11+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/StructureDefinition-hn-extension-representant.xlsx
+++ b/ExampleIG/output/StructureDefinition-hn-extension-representant.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-13T11:11:11+01:00</t>
+    <t>2023-12-13T11:17:26+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/StructureDefinition-hn-extension-representant.xlsx
+++ b/ExampleIG/output/StructureDefinition-hn-extension-representant.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-13T11:17:26+01:00</t>
+    <t>2023-12-13T16:08:28+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/StructureDefinition-hn-extension-representant.xlsx
+++ b/ExampleIG/output/StructureDefinition-hn-extension-representant.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-13T16:08:28+01:00</t>
+    <t>2023-12-13T16:14:30+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/StructureDefinition-hn-extension-representant.xlsx
+++ b/ExampleIG/output/StructureDefinition-hn-extension-representant.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-13T16:14:30+01:00</t>
+    <t>2023-12-13T17:25:33+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/StructureDefinition-hn-extension-representant.xlsx
+++ b/ExampleIG/output/StructureDefinition-hn-extension-representant.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-13T17:25:33+01:00</t>
+    <t>2023-12-13T17:36:01+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/StructureDefinition-hn-extension-representant.xlsx
+++ b/ExampleIG/output/StructureDefinition-hn-extension-representant.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-13T17:36:01+01:00</t>
+    <t>2023-12-14T00:07:25+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/StructureDefinition-hn-extension-representant.xlsx
+++ b/ExampleIG/output/StructureDefinition-hn-extension-representant.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-14T00:07:25+01:00</t>
+    <t>2023-12-14T00:17:30+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/StructureDefinition-hn-extension-representant.xlsx
+++ b/ExampleIG/output/StructureDefinition-hn-extension-representant.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-14T00:17:30+01:00</t>
+    <t>2023-12-14T00:31:44+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/StructureDefinition-hn-extension-representant.xlsx
+++ b/ExampleIG/output/StructureDefinition-hn-extension-representant.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-14T00:31:44+01:00</t>
+    <t>2023-12-14T15:10:19+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/StructureDefinition-hn-extension-representant.xlsx
+++ b/ExampleIG/output/StructureDefinition-hn-extension-representant.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-14T15:10:19+01:00</t>
+    <t>2024-06-09T15:34:44+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/StructureDefinition-hn-extension-representant.xlsx
+++ b/ExampleIG/output/StructureDefinition-hn-extension-representant.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.0</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-09T15:34:44+02:00</t>
+    <t>2024-06-12T14:59:11+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/StructureDefinition-hn-extension-representant.xlsx
+++ b/ExampleIG/output/StructureDefinition-hn-extension-representant.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-06T23:06:55+01:00</t>
+    <t>2024-11-07T10:16:17+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/StructureDefinition-hn-extension-representant.xlsx
+++ b/ExampleIG/output/StructureDefinition-hn-extension-representant.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-07T10:16:17+01:00</t>
+    <t>2024-11-07T10:24:13+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/StructureDefinition-hn-extension-representant.xlsx
+++ b/ExampleIG/output/StructureDefinition-hn-extension-representant.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-07T10:24:13+01:00</t>
+    <t>2024-11-07T10:34:59+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/StructureDefinition-hn-extension-representant.xlsx
+++ b/ExampleIG/output/StructureDefinition-hn-extension-representant.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1191" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1190" uniqueCount="254">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-07T10:34:59+01:00</t>
+    <t>2025-02-07T15:58:52+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -359,13 +359,10 @@
 </t>
   </si>
   <si>
-    <t>Norwegian human name</t>
-  </si>
-  <si>
-    <t>Defines the format of norwegian human name according to norwegian legislation (lov om personnavn).</t>
-  </si>
-  <si>
-    <t>Names may be changed, or repudiated, or people may have different names in different contexts. Names may be divided into parts of different type that have variable significance depending on context, though the division into parts does not always matter. With personal names, the different parts might or might not be imbued with some implicit meaning; various cultures associate different importance with the name parts and the degree to which systems must care about name parts around the world varies widely.</t>
+    <t>Value of extension</t>
+  </si>
+  <si>
+    <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/R4/extensibility.html) for a list).</t>
   </si>
   <si>
     <t>Extension.value[x]</t>
@@ -375,9 +372,6 @@
 </t>
   </si>
   <si>
-    <t>EN (actually, PN)</t>
-  </si>
-  <si>
     <t>Extension.extension:ident</t>
   </si>
   <si>
@@ -398,12 +392,6 @@
   <si>
     <t xml:space="preserve">Identifier
 </t>
-  </si>
-  <si>
-    <t>Value of extension</t>
-  </si>
-  <si>
-    <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/R4/extensibility.html) for a list).</t>
   </si>
   <si>
     <t>Extension.extension:ident.value[x].id</t>
@@ -2049,9 +2037,7 @@
       <c r="M9" t="s" s="2">
         <v>112</v>
       </c>
-      <c r="N9" t="s" s="2">
-        <v>113</v>
-      </c>
+      <c r="N9" s="2"/>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
         <v>73</v>
@@ -2100,7 +2086,7 @@
         <v>73</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>74</v>
@@ -2112,21 +2098,21 @@
         <v>77</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>116</v>
+        <v>107</v>
       </c>
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B10" t="s" s="2">
         <v>86</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D10" t="s" s="2">
         <v>73</v>
@@ -2225,7 +2211,7 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B11" t="s" s="2">
         <v>97</v>
@@ -2328,7 +2314,7 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B12" t="s" s="2">
         <v>99</v>
@@ -2431,7 +2417,7 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B13" t="s" s="2">
         <v>101</v>
@@ -2474,7 +2460,7 @@
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="S13" t="s" s="2">
         <v>73</v>
@@ -2536,7 +2522,7 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B14" t="s" s="2">
         <v>109</v>
@@ -2562,13 +2548,13 @@
         <v>73</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>124</v>
+        <v>111</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -2619,7 +2605,7 @@
         <v>73</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>74</v>
@@ -2631,7 +2617,7 @@
         <v>77</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>107</v>
@@ -2639,10 +2625,10 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -2742,14 +2728,14 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
@@ -2771,13 +2757,13 @@
         <v>87</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
@@ -2847,10 +2833,10 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -2873,19 +2859,19 @@
         <v>95</v>
       </c>
       <c r="K17" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="L17" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="M17" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="N17" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="O17" t="s" s="2">
         <v>136</v>
-      </c>
-      <c r="L17" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="M17" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="O17" t="s" s="2">
-        <v>140</v>
       </c>
       <c r="P17" t="s" s="2">
         <v>73</v>
@@ -2910,13 +2896,13 @@
         <v>73</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="AA17" t="s" s="2">
         <v>73</v>
@@ -2934,7 +2920,7 @@
         <v>73</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>74</v>
@@ -2946,18 +2932,18 @@
         <v>77</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -2980,19 +2966,19 @@
         <v>95</v>
       </c>
       <c r="K18" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="L18" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="M18" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="N18" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="O18" t="s" s="2">
         <v>148</v>
-      </c>
-      <c r="L18" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="M18" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="O18" t="s" s="2">
-        <v>152</v>
       </c>
       <c r="P18" t="s" s="2">
         <v>73</v>
@@ -3017,13 +3003,13 @@
         <v>73</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="AA18" t="s" s="2">
         <v>73</v>
@@ -3041,7 +3027,7 @@
         <v>73</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>74</v>
@@ -3053,18 +3039,18 @@
         <v>77</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3164,14 +3150,14 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
@@ -3193,13 +3179,13 @@
         <v>87</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
@@ -3269,10 +3255,10 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3295,19 +3281,19 @@
         <v>95</v>
       </c>
       <c r="K21" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="L21" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="M21" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="N21" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="O21" t="s" s="2">
         <v>163</v>
-      </c>
-      <c r="L21" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="O21" t="s" s="2">
-        <v>167</v>
       </c>
       <c r="P21" t="s" s="2">
         <v>73</v>
@@ -3332,11 +3318,11 @@
         <v>73</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="Y21" s="2"/>
       <c r="Z21" t="s" s="2">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="AA21" t="s" s="2">
         <v>73</v>
@@ -3354,7 +3340,7 @@
         <v>73</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>74</v>
@@ -3366,18 +3352,18 @@
         <v>77</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -3477,14 +3463,14 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
@@ -3506,13 +3492,13 @@
         <v>87</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
@@ -3582,10 +3568,10 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -3611,16 +3597,16 @@
         <v>102</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="O24" t="s" s="2">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>73</v>
@@ -3669,7 +3655,7 @@
         <v>73</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>74</v>
@@ -3681,18 +3667,18 @@
         <v>77</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -3718,13 +3704,13 @@
         <v>81</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
@@ -3774,7 +3760,7 @@
         <v>73</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>74</v>
@@ -3786,18 +3772,18 @@
         <v>77</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>189</v>
+        <v>185</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -3820,19 +3806,19 @@
         <v>95</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="O26" t="s" s="2">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>73</v>
@@ -3881,7 +3867,7 @@
         <v>73</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>74</v>
@@ -3893,18 +3879,18 @@
         <v>77</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>197</v>
+        <v>193</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -3930,16 +3916,16 @@
         <v>81</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="O27" t="s" s="2">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>73</v>
@@ -3988,7 +3974,7 @@
         <v>73</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>74</v>
@@ -4000,18 +3986,18 @@
         <v>77</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>204</v>
+        <v>200</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4034,19 +4020,19 @@
         <v>95</v>
       </c>
       <c r="K28" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="L28" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="M28" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="N28" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="O28" t="s" s="2">
         <v>207</v>
-      </c>
-      <c r="L28" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="O28" t="s" s="2">
-        <v>211</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>73</v>
@@ -4095,7 +4081,7 @@
         <v>73</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>74</v>
@@ -4107,18 +4093,18 @@
         <v>77</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>213</v>
+        <v>209</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4144,16 +4130,16 @@
         <v>81</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="O29" t="s" s="2">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="P29" t="s" s="2">
         <v>73</v>
@@ -4202,7 +4188,7 @@
         <v>73</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>74</v>
@@ -4214,18 +4200,18 @@
         <v>77</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>221</v>
+        <v>217</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4251,16 +4237,16 @@
         <v>102</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="O30" t="s" s="2">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>73</v>
@@ -4273,7 +4259,7 @@
         <v>73</v>
       </c>
       <c r="T30" t="s" s="2">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="U30" t="s" s="2">
         <v>73</v>
@@ -4309,7 +4295,7 @@
         <v>73</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>74</v>
@@ -4321,18 +4307,18 @@
         <v>77</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>230</v>
+        <v>226</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -4358,13 +4344,13 @@
         <v>81</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
@@ -4378,7 +4364,7 @@
         <v>73</v>
       </c>
       <c r="T31" t="s" s="2">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="U31" t="s" s="2">
         <v>73</v>
@@ -4414,7 +4400,7 @@
         <v>73</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>74</v>
@@ -4426,18 +4412,18 @@
         <v>77</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>238</v>
+        <v>234</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -4460,16 +4446,16 @@
         <v>95</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
@@ -4519,7 +4505,7 @@
         <v>73</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>74</v>
@@ -4531,18 +4517,18 @@
         <v>77</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>247</v>
+        <v>243</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -4565,16 +4551,16 @@
         <v>95</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
@@ -4624,7 +4610,7 @@
         <v>73</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>74</v>
@@ -4636,10 +4622,10 @@
         <v>77</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>256</v>
+        <v>252</v>
       </c>
     </row>
     <row r="34" hidden="true">
@@ -4749,10 +4735,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -4775,13 +4761,13 @@
         <v>73</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>124</v>
+        <v>111</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -4832,7 +4818,7 @@
         <v>73</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>74</v>
@@ -4844,7 +4830,7 @@
         <v>77</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>107</v>

--- a/ExampleIG/output/StructureDefinition-hn-extension-representant.xlsx
+++ b/ExampleIG/output/StructureDefinition-hn-extension-representant.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0</t>
+    <t>1.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-07T15:58:52+01:00</t>
+    <t>2025-02-12T12:09:01+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/StructureDefinition-hn-extension-representant.xlsx
+++ b/ExampleIG/output/StructureDefinition-hn-extension-representant.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-12T12:09:01+01:00</t>
+    <t>2025-02-12T17:25:34+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/StructureDefinition-hn-extension-representant.xlsx
+++ b/ExampleIG/output/StructureDefinition-hn-extension-representant.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-12T17:25:34+01:00</t>
+    <t>2025-02-13T07:45:06+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/StructureDefinition-hn-extension-representant.xlsx
+++ b/ExampleIG/output/StructureDefinition-hn-extension-representant.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-13T07:45:06+01:00</t>
+    <t>2025-02-21T16:49:26+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/StructureDefinition-hn-extension-representant.xlsx
+++ b/ExampleIG/output/StructureDefinition-hn-extension-representant.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-21T16:49:26+01:00</t>
+    <t>2025-02-22T02:39:46+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/StructureDefinition-hn-extension-representant.xlsx
+++ b/ExampleIG/output/StructureDefinition-hn-extension-representant.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-22T02:39:46+01:00</t>
+    <t>2025-02-22T03:24:26+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/StructureDefinition-hn-extension-representant.xlsx
+++ b/ExampleIG/output/StructureDefinition-hn-extension-representant.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-22T03:24:26+01:00</t>
+    <t>2025-02-22T03:36:49+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/StructureDefinition-hn-extension-representant.xlsx
+++ b/ExampleIG/output/StructureDefinition-hn-extension-representant.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-22T03:36:49+01:00</t>
+    <t>2025-02-22T03:45:56+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/StructureDefinition-hn-extension-representant.xlsx
+++ b/ExampleIG/output/StructureDefinition-hn-extension-representant.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-22T03:45:56+01:00</t>
+    <t>2025-02-22T03:55:28+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/StructureDefinition-hn-extension-representant.xlsx
+++ b/ExampleIG/output/StructureDefinition-hn-extension-representant.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-22T03:55:28+01:00</t>
+    <t>2025-02-22T04:12:23+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/StructureDefinition-hn-extension-representant.xlsx
+++ b/ExampleIG/output/StructureDefinition-hn-extension-representant.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-22T04:12:23+01:00</t>
+    <t>2025-02-22T05:08:06+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/StructureDefinition-hn-extension-representant.xlsx
+++ b/ExampleIG/output/StructureDefinition-hn-extension-representant.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-22T05:08:06+01:00</t>
+    <t>2025-02-22T05:29:40+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/StructureDefinition-hn-extension-representant.xlsx
+++ b/ExampleIG/output/StructureDefinition-hn-extension-representant.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-22T05:29:40+01:00</t>
+    <t>2025-03-16T11:47:10+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/StructureDefinition-hn-extension-representant.xlsx
+++ b/ExampleIG/output/StructureDefinition-hn-extension-representant.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-16T11:47:10+01:00</t>
+    <t>2025-03-16T12:58:55+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/StructureDefinition-hn-extension-representant.xlsx
+++ b/ExampleIG/output/StructureDefinition-hn-extension-representant.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-16T12:58:55+01:00</t>
+    <t>2025-03-16T13:18:55+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/StructureDefinition-hn-extension-representant.xlsx
+++ b/ExampleIG/output/StructureDefinition-hn-extension-representant.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-16T13:18:55+01:00</t>
+    <t>2025-03-26T11:34:28+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/StructureDefinition-hn-extension-representant.xlsx
+++ b/ExampleIG/output/StructureDefinition-hn-extension-representant.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-26T11:34:28+01:00</t>
+    <t>2025-05-28T01:07:52+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/StructureDefinition-hn-extension-representant.xlsx
+++ b/ExampleIG/output/StructureDefinition-hn-extension-representant.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.0</t>
+    <t>1.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-28T01:07:52+02:00</t>
+    <t>2025-05-28T02:05:36+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/StructureDefinition-hn-extension-representant.xlsx
+++ b/ExampleIG/output/StructureDefinition-hn-extension-representant.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-28T02:05:36+02:00</t>
+    <t>2025-05-29T20:33:03+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/StructureDefinition-hn-extension-representant.xlsx
+++ b/ExampleIG/output/StructureDefinition-hn-extension-representant.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-29T20:33:03+02:00</t>
+    <t>2025-05-29T20:44:52+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/StructureDefinition-hn-extension-representant.xlsx
+++ b/ExampleIG/output/StructureDefinition-hn-extension-representant.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1190" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1187" uniqueCount="250">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.2.0</t>
+    <t>1.2.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-29T20:44:52+02:00</t>
+    <t>2025-07-07T00:15:54+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -602,9 +602,6 @@
     <t>A symbol in syntax defined by the system. The symbol may be a predefined code or an expression in a syntax defined by the coding system (e.g. post-coordination).</t>
   </si>
   <si>
-    <t>Note that FHIR strings SHALL NOT exceed 1MB in size</t>
-  </si>
-  <si>
     <t>Need to refer to a particular code in the system.</t>
   </si>
   <si>
@@ -754,15 +751,7 @@
     <t>Time period during which identifier is/was valid for use.</t>
   </si>
   <si>
-    <t>A Period specifies a range of time; the context of use will specify whether the entire range applies (e.g. "the patient was an inpatient of the hospital for this time range") or one value from the range applies (e.g. "give to the patient between these two times").
-Period is not used for a duration (a measure of elapsed time). See [Duration](http://hl7.org/fhir/R4/datatypes.html#Duration).</t>
-  </si>
-  <si>
     <t>Identifier.period</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-per-1:If present, start SHALL have a lower value than end {start.hasValue().not() or end.hasValue().not() or (start &lt;= end)}</t>
   </si>
   <si>
     <t>Role.effectiveTime or implied by context</t>
@@ -788,10 +777,6 @@
   </si>
   <si>
     <t>Identifier.assigner</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ref-1:SHALL have a contained resource if a local reference is provided {reference.startsWith('#').not() or (reference.substring(1).trace('url') in %rootResource.contained.id.trace('ids'))}</t>
   </si>
   <si>
     <t>II.assigningAuthorityName but note that this is an improper use by the definition of the field.  Also Role.scoper</t>
@@ -1576,7 +1561,7 @@
         <v>75</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="AJ4" t="s" s="2">
         <v>78</v>
@@ -1681,7 +1666,7 @@
         <v>75</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="AJ5" t="s" s="2">
         <v>78</v>
@@ -1887,7 +1872,7 @@
         <v>75</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="AJ7" t="s" s="2">
         <v>78</v>
@@ -2095,7 +2080,7 @@
         <v>80</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="AJ9" t="s" s="2">
         <v>114</v>
@@ -2200,7 +2185,7 @@
         <v>75</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>78</v>
@@ -2406,7 +2391,7 @@
         <v>75</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="AJ12" t="s" s="2">
         <v>78</v>
@@ -2614,7 +2599,7 @@
         <v>80</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="AJ14" t="s" s="2">
         <v>114</v>
@@ -2822,13 +2807,13 @@
         <v>75</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="AJ16" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>107</v>
+        <v>85</v>
       </c>
     </row>
     <row r="17" hidden="true">
@@ -2929,7 +2914,7 @@
         <v>80</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="AJ17" t="s" s="2">
         <v>114</v>
@@ -3036,7 +3021,7 @@
         <v>80</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="AJ18" t="s" s="2">
         <v>114</v>
@@ -3244,13 +3229,13 @@
         <v>75</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="AJ20" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>107</v>
+        <v>85</v>
       </c>
     </row>
     <row r="21" hidden="true">
@@ -3349,7 +3334,7 @@
         <v>75</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="AJ21" t="s" s="2">
         <v>114</v>
@@ -3557,13 +3542,13 @@
         <v>75</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="AJ23" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>107</v>
+        <v>85</v>
       </c>
     </row>
     <row r="24" hidden="true">
@@ -3664,7 +3649,7 @@
         <v>80</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="AJ24" t="s" s="2">
         <v>114</v>
@@ -3769,7 +3754,7 @@
         <v>80</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="AJ25" t="s" s="2">
         <v>114</v>
@@ -3814,11 +3799,9 @@
       <c r="M26" t="s" s="2">
         <v>189</v>
       </c>
-      <c r="N26" t="s" s="2">
+      <c r="N26" s="2"/>
+      <c r="O26" t="s" s="2">
         <v>190</v>
-      </c>
-      <c r="O26" t="s" s="2">
-        <v>191</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>73</v>
@@ -3867,7 +3850,7 @@
         <v>73</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>74</v>
@@ -3876,21 +3859,21 @@
         <v>80</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="AJ26" t="s" s="2">
         <v>114</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="B27" t="s" s="2">
         <v>194</v>
-      </c>
-      <c r="B27" t="s" s="2">
-        <v>195</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -3916,16 +3899,14 @@
         <v>81</v>
       </c>
       <c r="L27" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="M27" t="s" s="2">
         <v>196</v>
       </c>
-      <c r="M27" t="s" s="2">
+      <c r="N27" s="2"/>
+      <c r="O27" t="s" s="2">
         <v>197</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="O27" t="s" s="2">
-        <v>198</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>73</v>
@@ -3974,7 +3955,7 @@
         <v>73</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>74</v>
@@ -3983,21 +3964,21 @@
         <v>80</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="AJ27" t="s" s="2">
         <v>114</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="B28" t="s" s="2">
         <v>201</v>
-      </c>
-      <c r="B28" t="s" s="2">
-        <v>202</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4020,19 +4001,19 @@
         <v>95</v>
       </c>
       <c r="K28" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="L28" t="s" s="2">
         <v>203</v>
       </c>
-      <c r="L28" t="s" s="2">
+      <c r="M28" t="s" s="2">
         <v>204</v>
       </c>
-      <c r="M28" t="s" s="2">
+      <c r="N28" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="N28" t="s" s="2">
+      <c r="O28" t="s" s="2">
         <v>206</v>
-      </c>
-      <c r="O28" t="s" s="2">
-        <v>207</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>73</v>
@@ -4081,7 +4062,7 @@
         <v>73</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>74</v>
@@ -4090,21 +4071,21 @@
         <v>80</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="AJ28" t="s" s="2">
         <v>114</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="B29" t="s" s="2">
         <v>210</v>
-      </c>
-      <c r="B29" t="s" s="2">
-        <v>211</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4130,16 +4111,16 @@
         <v>81</v>
       </c>
       <c r="L29" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="M29" t="s" s="2">
         <v>212</v>
       </c>
-      <c r="M29" t="s" s="2">
+      <c r="N29" t="s" s="2">
         <v>213</v>
       </c>
-      <c r="N29" t="s" s="2">
+      <c r="O29" t="s" s="2">
         <v>214</v>
-      </c>
-      <c r="O29" t="s" s="2">
-        <v>215</v>
       </c>
       <c r="P29" t="s" s="2">
         <v>73</v>
@@ -4188,7 +4169,7 @@
         <v>73</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>74</v>
@@ -4197,21 +4178,21 @@
         <v>80</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="AJ29" t="s" s="2">
         <v>114</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="B30" t="s" s="2">
         <v>218</v>
-      </c>
-      <c r="B30" t="s" s="2">
-        <v>219</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4237,16 +4218,16 @@
         <v>102</v>
       </c>
       <c r="L30" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="M30" t="s" s="2">
         <v>220</v>
       </c>
-      <c r="M30" t="s" s="2">
+      <c r="N30" t="s" s="2">
         <v>221</v>
       </c>
-      <c r="N30" t="s" s="2">
+      <c r="O30" t="s" s="2">
         <v>222</v>
-      </c>
-      <c r="O30" t="s" s="2">
-        <v>223</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>73</v>
@@ -4259,44 +4240,44 @@
         <v>73</v>
       </c>
       <c r="T30" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="U30" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V30" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W30" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X30" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y30" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z30" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA30" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB30" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC30" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD30" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE30" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF30" t="s" s="2">
         <v>224</v>
       </c>
-      <c r="U30" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V30" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W30" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X30" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y30" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z30" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA30" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB30" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC30" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD30" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE30" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AF30" t="s" s="2">
-        <v>225</v>
-      </c>
       <c r="AG30" t="s" s="2">
         <v>74</v>
       </c>
@@ -4304,21 +4285,21 @@
         <v>80</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="AJ30" t="s" s="2">
         <v>114</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="B31" t="s" s="2">
         <v>227</v>
-      </c>
-      <c r="B31" t="s" s="2">
-        <v>228</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -4344,13 +4325,13 @@
         <v>81</v>
       </c>
       <c r="L31" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="M31" t="s" s="2">
         <v>229</v>
       </c>
-      <c r="M31" t="s" s="2">
+      <c r="N31" t="s" s="2">
         <v>230</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>231</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
@@ -4364,44 +4345,44 @@
         <v>73</v>
       </c>
       <c r="T31" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="U31" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V31" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W31" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X31" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y31" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z31" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA31" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB31" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC31" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD31" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE31" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF31" t="s" s="2">
         <v>232</v>
       </c>
-      <c r="U31" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V31" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W31" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X31" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y31" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z31" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA31" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB31" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC31" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD31" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE31" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AF31" t="s" s="2">
-        <v>233</v>
-      </c>
       <c r="AG31" t="s" s="2">
         <v>74</v>
       </c>
@@ -4409,21 +4390,21 @@
         <v>80</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="AJ31" t="s" s="2">
         <v>114</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="B32" t="s" s="2">
         <v>235</v>
-      </c>
-      <c r="B32" t="s" s="2">
-        <v>236</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -4446,17 +4427,15 @@
         <v>95</v>
       </c>
       <c r="K32" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="L32" t="s" s="2">
         <v>237</v>
       </c>
-      <c r="L32" t="s" s="2">
+      <c r="M32" t="s" s="2">
         <v>238</v>
       </c>
-      <c r="M32" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>240</v>
-      </c>
+      <c r="N32" s="2"/>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
         <v>73</v>
@@ -4505,7 +4484,7 @@
         <v>73</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>74</v>
@@ -4514,21 +4493,21 @@
         <v>80</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>242</v>
+        <v>114</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -4551,16 +4530,16 @@
         <v>95</v>
       </c>
       <c r="K33" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="L33" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="M33" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="N33" t="s" s="2">
         <v>246</v>
-      </c>
-      <c r="L33" t="s" s="2">
-        <v>247</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>249</v>
       </c>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
@@ -4610,7 +4589,7 @@
         <v>73</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>74</v>
@@ -4619,13 +4598,13 @@
         <v>80</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>251</v>
+        <v>114</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>252</v>
+        <v>248</v>
       </c>
     </row>
     <row r="34" hidden="true">
@@ -4761,7 +4740,7 @@
         <v>73</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="L35" t="s" s="2">
         <v>111</v>
@@ -4827,7 +4806,7 @@
         <v>80</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="AJ35" t="s" s="2">
         <v>114</v>

--- a/ExampleIG/output/StructureDefinition-hn-extension-representant.xlsx
+++ b/ExampleIG/output/StructureDefinition-hn-extension-representant.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-07T00:15:54+02:00</t>
+    <t>2025-07-07T00:32:38+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/StructureDefinition-hn-extension-representant.xlsx
+++ b/ExampleIG/output/StructureDefinition-hn-extension-representant.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-07T00:32:38+02:00</t>
+    <t>2025-07-07T08:59:22+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/StructureDefinition-hn-extension-representant.xlsx
+++ b/ExampleIG/output/StructureDefinition-hn-extension-representant.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-07T08:59:22+02:00</t>
+    <t>2025-09-28T17:18:13+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/StructureDefinition-hn-extension-representant.xlsx
+++ b/ExampleIG/output/StructureDefinition-hn-extension-representant.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-28T17:18:13+02:00</t>
+    <t>2025-09-29T11:26:30+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/StructureDefinition-hn-extension-representant.xlsx
+++ b/ExampleIG/output/StructureDefinition-hn-extension-representant.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-29T11:26:30+02:00</t>
+    <t>2025-09-29T11:54:59+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/StructureDefinition-hn-extension-representant.xlsx
+++ b/ExampleIG/output/StructureDefinition-hn-extension-representant.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-29T11:54:59+02:00</t>
+    <t>2025-09-29T13:11:32+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/StructureDefinition-hn-extension-representant.xlsx
+++ b/ExampleIG/output/StructureDefinition-hn-extension-representant.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.2.1</t>
+    <t>1.3.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-29T13:11:32+02:00</t>
+    <t>2025-09-29T13:18:42+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/StructureDefinition-hn-extension-representant.xlsx
+++ b/ExampleIG/output/StructureDefinition-hn-extension-representant.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.3.0</t>
+    <t>1.3.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-29T13:18:42+02:00</t>
+    <t>2025-10-01T13:36:52+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
